--- a/OrbisGame/Container/Data/ProfilesMonster.xlsx
+++ b/OrbisGame/Container/Data/ProfilesMonster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" firstSheet="35" activeTab="38"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" firstSheet="48" activeTab="53"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -60,6 +60,7 @@
     <sheet name="Erwachter Champion" sheetId="33" r:id="rId51"/>
     <sheet name="Drache Baby" sheetId="72" r:id="rId52"/>
     <sheet name="Ricor" sheetId="73" r:id="rId53"/>
+    <sheet name="Stein Mensch" sheetId="75" r:id="rId54"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6819" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6944" uniqueCount="380">
   <si>
     <t>Lucksave</t>
   </si>
@@ -1363,9 +1364,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1396,13 +1401,17 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
@@ -1439,7 +1448,7 @@
         <xdr:cNvPr id="2" name="Grafik 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{947B3F3D-36B3-4DC4-82A9-53AA00A6DF6B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947B3F3D-36B3-4DC4-82A9-53AA00A6DF6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1772,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -28074,8 +28083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -28896,6 +28905,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -49795,6 +49805,801 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5">
+        <v>70</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5">
+        <v>40</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5">
+        <v>40</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="5">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>10</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B8+B9</f>
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5">
+        <v>300</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5">
+        <v>100</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="5">
+        <v>80</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="5">
+        <v>300</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" t="s">
+        <v>305</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="5">
+        <v>35</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5">
+        <v>16</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="5">
+        <v>35</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="5">
+        <v>20</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" t="s">
+        <v>305</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="5">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" t="s">
+        <v>305</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="5">
+        <v>13</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" t="s">
+        <v>306</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>

--- a/OrbisGame/Container/Data/ProfilesMonster.xlsx
+++ b/OrbisGame/Container/Data/ProfilesMonster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" firstSheet="48" activeTab="53"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="22" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -61,6 +61,9 @@
     <sheet name="Drache Baby" sheetId="72" r:id="rId52"/>
     <sheet name="Ricor" sheetId="73" r:id="rId53"/>
     <sheet name="Stein Mensch" sheetId="75" r:id="rId54"/>
+    <sheet name="Fledermaus Monster" sheetId="76" r:id="rId55"/>
+    <sheet name="Große Fledermaus monster" sheetId="77" r:id="rId56"/>
+    <sheet name="Fledermaus Man" sheetId="78" r:id="rId57"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -77,6 +80,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -84,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6944" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7322" uniqueCount="401">
   <si>
     <t>Lucksave</t>
   </si>
@@ -1225,12 +1229,75 @@
   <si>
     <t>Großschwert</t>
   </si>
+  <si>
+    <t>Lootprofil</t>
+  </si>
+  <si>
+    <t>Gravis</t>
+  </si>
+  <si>
+    <t>Lindwurm</t>
+  </si>
+  <si>
+    <t>Skrogan Skorpion</t>
+  </si>
+  <si>
+    <t>Schratgärtner</t>
+  </si>
+  <si>
+    <t>MantikorBär</t>
+  </si>
+  <si>
+    <t>Steinwurm</t>
+  </si>
+  <si>
+    <t>Aschwurm</t>
+  </si>
+  <si>
+    <t>Weltenwurm</t>
+  </si>
+  <si>
+    <t>Gepanzerter Gravis</t>
+  </si>
+  <si>
+    <t>Wandia Konstrukt</t>
+  </si>
+  <si>
+    <t>Erwachter Bloater</t>
+  </si>
+  <si>
+    <t>Erwachter Mutiert</t>
+  </si>
+  <si>
+    <t>Erwachter Köder</t>
+  </si>
+  <si>
+    <t>Erwachter Hühne</t>
+  </si>
+  <si>
+    <t>Erwachter Täuscher</t>
+  </si>
+  <si>
+    <t>Erwachter Champion</t>
+  </si>
+  <si>
+    <t>Drachen Baby</t>
+  </si>
+  <si>
+    <t>Stein Mensch</t>
+  </si>
+  <si>
+    <t>Kathkhan</t>
+  </si>
+  <si>
+    <t>lootprofil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,6 +1365,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1364,7 +1436,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1377,8 +1449,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1392,6 +1470,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1401,17 +1480,23 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="18">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
@@ -1448,7 +1533,7 @@
         <xdr:cNvPr id="2" name="Grafik 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947B3F3D-36B3-4DC4-82A9-53AA00A6DF6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{947B3F3D-36B3-4DC4-82A9-53AA00A6DF6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1783,10 +1868,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1797,16 +1882,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4"/>
@@ -1941,6 +2026,11 @@
         <v>371</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>70</v>
@@ -1974,134 +2064,224 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" t="s">
-        <v>83</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" t="s">
-        <v>85</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>271</v>
-      </c>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>273</v>
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>283</v>
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>284</v>
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>337</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>339</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>341</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>361</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -2122,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2820,8 +3000,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -2891,7 +3075,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -2917,8 +3101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3609,8 +3793,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -3680,7 +3868,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -3714,8 +3902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4403,8 +4591,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -4474,7 +4666,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -4500,8 +4692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5184,8 +5376,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -5255,7 +5451,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -5281,8 +5477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5971,8 +6167,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -6042,7 +6242,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -6068,8 +6268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6758,8 +6958,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -6829,7 +7033,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -6855,8 +7059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7578,8 +7782,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -7653,7 +7861,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -7703,8 +7911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8397,8 +8605,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>384</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -8468,7 +8680,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -8494,8 +8706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9188,8 +9400,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -9259,7 +9475,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -9312,8 +9528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10010,8 +10226,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -10081,7 +10301,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -10134,8 +10354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10829,8 +11049,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -10900,7 +11124,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -10927,7 +11151,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11613,8 +11837,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -11738,7 +11966,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12422,8 +12650,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -12547,7 +12779,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13233,8 +13465,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -13358,7 +13594,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14048,8 +14284,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9">
@@ -14170,7 +14410,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14861,8 +15101,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -14985,8 +15229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15676,8 +15920,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -15801,7 +16049,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -16479,8 +16727,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -16604,7 +16856,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -17303,8 +17555,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -17428,7 +17684,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18118,8 +18374,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -18243,7 +18503,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -18933,8 +19193,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -19750,8 +20014,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>337</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -19821,7 +20089,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -19835,6 +20103,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19848,7 +20117,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20538,8 +20807,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -20663,7 +20936,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21353,8 +21626,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -21478,7 +21755,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22168,8 +22445,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>382</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -22293,7 +22574,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22975,8 +23256,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -23097,7 +23382,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -23779,8 +24064,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>381</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -23901,7 +24190,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -24594,8 +24883,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>390</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -24693,7 +24986,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -25353,8 +25646,12 @@
       <c r="F25" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
@@ -25443,7 +25740,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -26139,8 +26436,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
@@ -27242,7 +27543,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -27959,8 +28260,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
     </row>
@@ -28084,7 +28389,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J29"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -28793,8 +29098,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
     </row>
@@ -28905,7 +29214,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -28918,8 +29226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -29606,8 +29914,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -29704,7 +30016,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -30400,8 +30712,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
@@ -31491,7 +31807,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -32186,8 +32502,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
@@ -33277,7 +33597,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -33972,8 +34292,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
@@ -35063,7 +35387,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -35758,8 +36082,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
@@ -36849,7 +37177,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -37547,8 +37875,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
@@ -38650,7 +38982,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -39346,8 +39678,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
@@ -40449,7 +40785,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -41160,8 +41496,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
     </row>
@@ -41285,7 +41625,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -41981,8 +42321,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
@@ -43084,7 +43428,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -43780,8 +44124,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
@@ -44883,7 +45231,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -45651,8 +45999,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -45763,8 +46115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -46452,8 +46804,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -46523,7 +46879,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -46550,7 +46906,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -47336,8 +47692,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -47455,7 +47815,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -48184,8 +48544,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -48291,7 +48655,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection sqref="A1:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -48967,8 +49331,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9">
@@ -49049,6 +49417,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -49062,7 +49431,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -49717,8 +50086,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9">
@@ -49809,8 +50182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -50513,8 +50886,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
     </row>
@@ -50591,6 +50968,1546 @@
       <c r="J29" s="1"/>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2">
+        <v>40</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="5">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="5">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B8+B9</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5">
+        <v>150</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1">
+        <v>300</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1">
+        <v>300</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>15</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1">
+        <v>300</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1">
+        <v>300</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1">
+        <v>300</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="1">
+        <v>300</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2">
+        <v>42</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="5">
+        <v>13</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="5">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5">
+        <v>70</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5">
+        <v>50</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="5">
+        <v>14</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5">
+        <v>65</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="5">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="5">
+        <v>14</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="5">
+        <v>14</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="5">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="5">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5">
+        <v>20</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="12">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B8+B9</f>
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5">
+        <v>500</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5">
+        <v>70</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5">
+        <v>20</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="5">
+        <v>50</v>
+      </c>
+      <c r="G18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="5">
+        <v>120</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5">
+        <v>40</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="5">
+        <v>300</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="5">
+        <v>30</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" t="s">
+        <v>305</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="5">
+        <v>60</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="5">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="5">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="G22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H22" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="5">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" t="s">
+        <v>305</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="5">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" t="s">
+        <v>305</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="5">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="5">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="5">
+        <v>13</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" t="s">
+        <v>306</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -50604,8 +52521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -51293,8 +53210,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -51364,7 +53285,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -51390,8 +53311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -52071,8 +53992,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -52142,7 +54067,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J29" s="6"/>
     </row>
@@ -52168,8 +54093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -52856,8 +54781,12 @@
       <c r="F25" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -52953,8 +54882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -53644,8 +55573,12 @@
       <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
@@ -53715,7 +55648,7 @@
         <v>157</v>
       </c>
       <c r="B29">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J29" s="6"/>
     </row>

--- a/OrbisGame/Container/Data/ProfilesMonster.xlsx
+++ b/OrbisGame/Container/Data/ProfilesMonster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="55" activeTab="59"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="56" activeTab="58"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,8 @@
     <sheet name="Große Fledermaus monster" sheetId="77" r:id="rId57"/>
     <sheet name="Mechanised monster" sheetId="80" r:id="rId58"/>
     <sheet name="flying monster" sheetId="82" r:id="rId59"/>
-    <sheet name="Desert rascal" sheetId="83" r:id="rId60"/>
+    <sheet name="Desert racals" sheetId="83" r:id="rId60"/>
+    <sheet name="Armor desert Racals" sheetId="84" r:id="rId61"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7777" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7905" uniqueCount="405">
   <si>
     <t>Lucksave</t>
   </si>
@@ -1451,9 +1452,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1515,7 +1518,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="40">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1534,6 +1537,7 @@
     <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1552,6 +1556,7 @@
     <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
@@ -1588,7 +1593,7 @@
         <xdr:cNvPr id="2" name="Grafik 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{947B3F3D-36B3-4DC4-82A9-53AA00A6DF6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{947B3F3D-36B3-4DC4-82A9-53AA00A6DF6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7915,7 +7920,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -53846,8 +53850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -53886,7 +53890,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>48</v>
@@ -53898,7 +53902,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="5">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>123</v>
@@ -53913,19 +53917,19 @@
         <v>47</v>
       </c>
       <c r="B3" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D3" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>124</v>
@@ -53952,7 +53956,7 @@
         <v>108</v>
       </c>
       <c r="F4" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>125</v>
@@ -53967,7 +53971,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>42</v>
@@ -53979,7 +53983,7 @@
         <v>109</v>
       </c>
       <c r="F5" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>126</v>
@@ -54006,7 +54010,7 @@
         <v>110</v>
       </c>
       <c r="F6" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>127</v>
@@ -54033,7 +54037,7 @@
         <v>111</v>
       </c>
       <c r="F7" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>128</v>
@@ -54101,7 +54105,7 @@
       </c>
       <c r="B10" s="5">
         <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>32</v>
@@ -54179,7 +54183,7 @@
       </c>
       <c r="B13" s="5">
         <f>ROUNDUP((B7+B5)/2,0)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
@@ -54235,7 +54239,7 @@
       </c>
       <c r="B15" s="5">
         <f>ROUNDUP((B5+B4+B5)/3,0)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>23</v>
@@ -54290,7 +54294,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>21</v>
@@ -55396,8 +55400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -55468,7 +55472,7 @@
         <v>47</v>
       </c>
       <c r="B3" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>46</v>
@@ -55614,8 +55618,8 @@
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>174</v>
+      <c r="F8" s="11" t="s">
+        <v>374</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>129</v>
@@ -56170,6 +56174,785 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5">
+        <v>35</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="5">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5">
+        <f>ROUNDUP((B8+B5+B7+B9)/2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="5">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="5">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <f>ROUNDUP((B7+B5)/2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="5">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <f>ROUNDUP((B6+B6+B4)/3,0)</f>
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <f>ROUNDUP((B5+B4+B5)/3,0)</f>
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B8+B9</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5">
+        <v>350</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="5">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="5">
+        <v>90</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="5">
+        <v>350</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="5">
+        <v>30</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="5">
+        <v>80</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="5">
+        <v>80</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="5">
+        <v>100</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="5">
+        <v>100</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" s="5">
+        <v>9</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>302</v>
+      </c>
+      <c r="F28" t="s">
+        <v>303</v>
+      </c>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
